--- a/src/test/resources/xlsx/output/out_loopXlsxTemplateResult.xlsx
+++ b/src/test/resources/xlsx/output/out_loopXlsxTemplateResult.xlsx
@@ -1,36 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet World ABC" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet World ABC" r:id="rId1" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet World ABC'!$A$7:$B$7</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Sheet World ABC'!$A$7:$B$7</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Jebt supports single properties.</t>
   </si>
   <si>
+    <t>Hello {{stringName}}!</t>
+  </si>
+  <si>
     <t>We also support iterating over arrays.</t>
   </si>
   <si>
+    <t>{{customer.name}}</t>
+  </si>
+  <si>
+    <t>Friend Name: {{friend.name}}</t>
+  </si>
+  <si>
     <t>A loop should ALWAYS start in the first column, otherwise layout might be messed up during generation. It's fine to have a loop go over multiple lines.</t>
   </si>
   <si>
+    <t>Customer: {{customer.name}}</t>
+  </si>
+  <si>
     <t>Loops will go to next row after every record:</t>
   </si>
   <si>
+    <t>{{customer.country}}</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -40,6 +64,12 @@
     <t>You can also have nested loops, but in that case, inner loops cells will be inserted on the same row:</t>
   </si>
   <si>
+    <t>Name: {{customer.name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alias: {{alias}}</t>
+  </si>
+  <si>
     <t>Country:</t>
   </si>
   <si>
@@ -52,101 +82,46 @@
     <t>Note that cell formatting will be copied over in loops.</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">You can iterate over multiple cells on a Row. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You cannot use Tables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, but you can use a Filter as long as the cells with the filters are inserted before any Loop (so they won't move once template is filled)</t>
+    </r>
+  </si>
+  <si>
     <t>You can also have loops as text in a cell, but such loops must be opened and closed in the same cell's text.</t>
   </si>
   <si>
-    <t>Hello World!</t>
-  </si>
-  <si>
-    <t>You can iterate over multiple cells on a Row. You cannot use Tables, but you can use a Filter as long as the cells with the filters are inserted before any Loop (so they won't move once template is filled)</t>
-  </si>
-  <si>
-    <t>Customer 1</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Customer 2</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Customer 3</t>
-  </si>
-  <si>
-    <t>Korea</t>
-  </si>
-  <si>
-    <t>Name: Customer 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alias: bibi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alias: bobo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alias: baba</t>
-  </si>
-  <si>
-    <t>Friend Name: Customer 4</t>
-  </si>
-  <si>
-    <t>Friend Name: Customer 8</t>
-  </si>
-  <si>
-    <t>Name: Customer 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alias: didi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alias: dada</t>
-  </si>
-  <si>
-    <t>Name: Customer 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alias: toto</t>
-  </si>
-  <si>
-    <t>Friend Name: Customer 7</t>
-  </si>
-  <si>
-    <t>Customer: Customer 1</t>
-  </si>
-  <si>
-    <t>Customer: Customer 2</t>
-  </si>
-  <si>
-    <t>Customer: Customer 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is the list of aliases for 'Customer 1': </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "bibi"; "bobo"; "baba"; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is the list of aliases for 'Customer 2': </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "didi"; "dada"; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is the list of aliases for 'Customer 3': </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "toto"; </t>
+    <t xml:space="preserve">{[customer.aliases|alias]} "{{alias}}";{[]} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the list of aliases for '{{customer.name}}': </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,12 +147,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -198,6 +186,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -327,28 +322,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="6" fontId="8" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -365,10 +360,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -403,7 +398,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,7 +433,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -526,7 +521,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -535,13 +530,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -551,7 +546,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -560,7 +555,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -569,7 +564,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -579,12 +574,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -615,7 +610,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -634,7 +629,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -646,8 +641,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
@@ -655,251 +650,393 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="43.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="32.5546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="20.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Jebt supports single properties.</t>
+        </is>
+      </c>
+      <c r="B1"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hello World!</t>
+        </is>
+      </c>
+      <c r="B2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>We also support iterating over arrays.</t>
+        </is>
+      </c>
+      <c r="B3"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Loops will go to next row after every record:</t>
+        </is>
+      </c>
+      <c r="B4"/>
+    </row>
+    <row r="5">
       <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>You can iterate over multiple cells on a Row. You cannot use Tables, but you can use a Filter as long as the cells with the filters are inserted before any Loop (so they won't move once template is filled)</t>
+        </is>
+      </c>
+      <c r="B6"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C7"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>Customer 1</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>Customer 2</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>Customer 3</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
+      <c r="C10"/>
+    </row>
+    <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="12" t="inlineStr">
+        <is>
+          <t>Or only one cell per row.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Note that cell formatting will be copied over in loops.</t>
+        </is>
+      </c>
+      <c r="C12"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="inlineStr">
+        <is>
+          <t>Customer 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="inlineStr">
+        <is>
+          <t>Customer 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="inlineStr">
+        <is>
+          <t>Customer 3</t>
+        </is>
+      </c>
+      <c r="B15"/>
+    </row>
+    <row r="16">
+</row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>You can also have nested loops, but in that case, inner loops cells will be inserted on the same row:</t>
+        </is>
+      </c>
+      <c r="B17"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Name: Customer 1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alias: bibi</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alias: bobo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alias: baba</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>Friend Name: Customer 4</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>Friend Name: Customer 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Name: Customer 2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alias: didi</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alias: dada</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Name: Customer 3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alias: toto</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Friend Name: Customer 7</t>
+        </is>
+      </c>
+      <c r="D20"/>
+    </row>
+    <row r="21">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A loop should ALWAYS start in the first column, otherwise layout might be messed up during generation. It's fine to have a loop go over multiple lines.</t>
+        </is>
+      </c>
+      <c r="B22"/>
+    </row>
+    <row r="23">
       <c r="A23" s="5"/>
-      <c r="B23" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>Customer: Customer 1</t>
+        </is>
+      </c>
+      <c r="C23"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Country:</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C24"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>List of Friends:</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Friend Name: Customer 4</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Friend Name: Customer 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="5"/>
-      <c r="B26" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="inlineStr">
+        <is>
+          <t>Customer: Customer 2</t>
+        </is>
+      </c>
+      <c r="C26"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Country:</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C27"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>List of Friends:</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="5"/>
-      <c r="B29" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>Customer: Customer 3</t>
+        </is>
+      </c>
+      <c r="C29"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>Country:</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
+      <c r="C30"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>List of Friends:</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Friend Name: Customer 7</t>
+        </is>
+      </c>
+      <c r="C31"/>
+    </row>
+    <row r="32">
+</row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>You can also have loops as text in a cell, but such loops must be opened and closed in the same cell's text.</t>
+        </is>
+      </c>
+      <c r="B33"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is the list of aliases for 'Customer 1': </t>
+        </is>
+      </c>
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "bibi"; "bobo"; "baba"; </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is the list of aliases for 'Customer 2': </t>
+        </is>
+      </c>
+      <c r="B35" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "didi"; "dada"; </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is the list of aliases for 'Customer 3': </t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "toto"; </t>
+        </is>
+      </c>
+      <c r="C36"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:B7"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/xlsx/output/out_loopXlsxTemplateResult.xlsx
+++ b/src/test/resources/xlsx/output/out_loopXlsxTemplateResult.xlsx
@@ -661,7 +661,6 @@
           <t>Jebt supports single properties.</t>
         </is>
       </c>
-      <c r="B1"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -669,7 +668,6 @@
           <t>Hello World!</t>
         </is>
       </c>
-      <c r="B2"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -677,7 +675,6 @@
           <t>We also support iterating over arrays.</t>
         </is>
       </c>
-      <c r="B3"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -685,11 +682,9 @@
           <t>Loops will go to next row after every record:</t>
         </is>
       </c>
-      <c r="B4"/>
     </row>
     <row r="5">
       <c r="A5" s="3"/>
-      <c r="B5"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -697,7 +692,6 @@
           <t>You can iterate over multiple cells on a Row. You cannot use Tables, but you can use a Filter as long as the cells with the filters are inserted before any Loop (so they won't move once template is filled)</t>
         </is>
       </c>
-      <c r="B6"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="inlineStr">
@@ -710,7 +704,6 @@
           <t>Country</t>
         </is>
       </c>
-      <c r="C7"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -747,12 +740,10 @@
           <t>Korea</t>
         </is>
       </c>
-      <c r="C10"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="4"/>
-      <c r="C11"/>
     </row>
     <row r="12">
       <c r="A12" s="12" t="inlineStr">
@@ -765,7 +756,6 @@
           <t>Note that cell formatting will be copied over in loops.</t>
         </is>
       </c>
-      <c r="C12"/>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
@@ -787,7 +777,6 @@
           <t>Customer 3</t>
         </is>
       </c>
-      <c r="B15"/>
     </row>
     <row r="16">
 </row>
@@ -797,7 +786,6 @@
           <t>You can also have nested loops, but in that case, inner loops cells will be inserted on the same row:</t>
         </is>
       </c>
-      <c r="B17"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -864,7 +852,6 @@
           <t>Friend Name: Customer 7</t>
         </is>
       </c>
-      <c r="D20"/>
     </row>
     <row r="21">
       <c r="A21"/>
@@ -873,7 +860,6 @@
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" s="2"/>
-      <c r="G21"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -881,7 +867,6 @@
           <t>A loop should ALWAYS start in the first column, otherwise layout might be messed up during generation. It's fine to have a loop go over multiple lines.</t>
         </is>
       </c>
-      <c r="B22"/>
     </row>
     <row r="23">
       <c r="A23" s="5"/>
@@ -890,7 +875,6 @@
           <t>Customer: Customer 1</t>
         </is>
       </c>
-      <c r="C23"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
@@ -903,7 +887,6 @@
           <t>China</t>
         </is>
       </c>
-      <c r="C24"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
@@ -929,7 +912,6 @@
           <t>Customer: Customer 2</t>
         </is>
       </c>
-      <c r="C26"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
@@ -942,7 +924,6 @@
           <t>Japan</t>
         </is>
       </c>
-      <c r="C27"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
@@ -958,7 +939,6 @@
           <t>Customer: Customer 3</t>
         </is>
       </c>
-      <c r="C29"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
@@ -971,7 +951,6 @@
           <t>Korea</t>
         </is>
       </c>
-      <c r="C30"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
@@ -984,7 +963,6 @@
           <t>Friend Name: Customer 7</t>
         </is>
       </c>
-      <c r="C31"/>
     </row>
     <row r="32">
 </row>
@@ -994,7 +972,6 @@
           <t>You can also have loops as text in a cell, but such loops must be opened and closed in the same cell's text.</t>
         </is>
       </c>
-      <c r="B33"/>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
@@ -1031,7 +1008,6 @@
           <t xml:space="preserve"> "toto"; </t>
         </is>
       </c>
-      <c r="C36"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:B7"/>

--- a/src/test/resources/xlsx/output/out_loopXlsxTemplateResult.xlsx
+++ b/src/test/resources/xlsx/output/out_loopXlsxTemplateResult.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="Sheet World ABC" r:id="rId1" sheetId="1"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Sheet World ABC'!$A$7:$B$7</definedName>
-  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
@@ -26,19 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
-  <si>
-    <t>Jebt supports single properties.</t>
-  </si>
-  <si>
-    <t>Hello {{stringName}}!</t>
-  </si>
-  <si>
-    <t>We also support iterating over arrays.</t>
-  </si>
-  <si>
-    <t>{{customer.name}}</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Friend Name: {{friend.name}}</t>
   </si>
@@ -49,21 +34,9 @@
     <t>Customer: {{customer.name}}</t>
   </si>
   <si>
-    <t>Loops will go to next row after every record:</t>
-  </si>
-  <si>
     <t>{{customer.country}}</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>You can also have nested loops, but in that case, inner loops cells will be inserted on the same row:</t>
-  </si>
-  <si>
     <t>Name: {{customer.name}}</t>
   </si>
   <si>
@@ -76,37 +49,6 @@
     <t>List of Friends:</t>
   </si>
   <si>
-    <t>Or only one cell per row.</t>
-  </si>
-  <si>
-    <t>Note that cell formatting will be copied over in loops.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">You can iterate over multiple cells on a Row. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>You cannot use Tables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, but you can use a Filter as long as the cells with the filters are inserted before any Loop (so they won't move once template is filled)</t>
-    </r>
-  </si>
-  <si>
     <t>You can also have loops as text in a cell, but such loops must be opened and closed in the same cell's text.</t>
   </si>
   <si>
@@ -114,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">This is the list of aliases for '{{customer.name}}': </t>
+  </si>
+  <si>
+    <t>You can have nested loops, but in that case, inner loops cells will be inserted on the same row:</t>
   </si>
 </sst>
 </file>
@@ -121,7 +66,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,23 +127,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,30 +143,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor theme="6" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -270,74 +182,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="6" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -642,11 +499,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -656,361 +511,229 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Jebt supports single properties.</t>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>You can have nested loops, but in that case, inner loops cells will be inserted on the same row:</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Hello World!</t>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Name: Customer 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alias: bibi</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alias: bobo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alias: baba</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Friend Name: Customer 4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Friend Name: Customer 8</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>We also support iterating over arrays.</t>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Name: Customer 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alias: didi</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alias: dada</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Loops will go to next row after every record:</t>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Name: Customer 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alias: toto</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Friend Name: Customer 7</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3"/>
-    </row>
+</row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>You can iterate over multiple cells on a Row. You cannot use Tables, but you can use a Filter as long as the cells with the filters are inserted before any Loop (so they won't move once template is filled)</t>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A loop should ALWAYS start in the first column, otherwise layout might be messed up during generation. It's fine to have a loop go over multiple lines.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B7" s="10" t="inlineStr">
-        <is>
-          <t>Country</t>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Customer: Customer 1</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>Customer 1</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Country:</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>Customer 2</t>
-        </is>
-      </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>List of Friends:</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Friend Name: Customer 4</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Friend Name: Customer 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Customer: Customer 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Country:</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Japan</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>Customer 3</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>List of Friends:</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Customer: Customer 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Country:</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Korea</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="12" t="inlineStr">
-        <is>
-          <t>Or only one cell per row.</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Note that cell formatting will be copied over in loops.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="inlineStr">
-        <is>
-          <t>Customer 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="inlineStr">
-        <is>
-          <t>Customer 2</t>
-        </is>
-      </c>
-    </row>
     <row r="15">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>Customer 3</t>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>List of Friends:</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Friend Name: Customer 7</t>
         </is>
       </c>
     </row>
     <row r="16">
 </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>You can also have nested loops, but in that case, inner loops cells will be inserted on the same row:</t>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>You can also have loops as text in a cell, but such loops must be opened and closed in the same cell's text.</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>Name: Customer 1</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Alias: bibi</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Alias: bobo</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Alias: baba</t>
-        </is>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>Friend Name: Customer 4</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>Friend Name: Customer 8</t>
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is the list of aliases for 'Customer 1': </t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "bibi"; "bobo"; "baba"; </t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>Name: Customer 2</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Alias: didi</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Alias: dada</t>
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is the list of aliases for 'Customer 2': </t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "didi"; "dada"; </t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Name: Customer 3</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Alias: toto</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>Friend Name: Customer 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A loop should ALWAYS start in the first column, otherwise layout might be messed up during generation. It's fine to have a loop go over multiple lines.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6" t="inlineStr">
-        <is>
-          <t>Customer: Customer 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>Country:</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>China</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>List of Friends:</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>Friend Name: Customer 4</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>Friend Name: Customer 8</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6" t="inlineStr">
-        <is>
-          <t>Customer: Customer 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>Country:</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>List of Friends:</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6" t="inlineStr">
-        <is>
-          <t>Customer: Customer 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>Country:</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Korea</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>List of Friends:</t>
-        </is>
-      </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>Friend Name: Customer 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-</row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>You can also have loops as text in a cell, but such loops must be opened and closed in the same cell's text.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is the list of aliases for 'Customer 1': </t>
-        </is>
-      </c>
-      <c r="B34" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "bibi"; "bobo"; "baba"; </t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is the list of aliases for 'Customer 2': </t>
-        </is>
-      </c>
-      <c r="B35" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "didi"; "dada"; </t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7" t="inlineStr">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">This is the list of aliases for 'Customer 3': </t>
         </is>
       </c>
-      <c r="B36" s="8" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve"> "toto"; </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:B7"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
